--- a/Video_Validation_Details_SSBD.xlsx
+++ b/Video_Validation_Details_SSBD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nusharawedasingha/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E1A47E-8FAB-D847-ADED-3B91DC11A331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9A0812-799D-9348-ACC5-4D18765CD26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{905B5AD6-634A-9749-ABA6-5296EF128035}"/>
   </bookViews>
@@ -35,15 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="143">
   <si>
     <t>Name of Video</t>
-  </si>
-  <si>
-    <t>Special Comments</t>
-  </si>
-  <si>
-    <t>Type of Emotion</t>
   </si>
   <si>
     <t>HB1</t>
@@ -110,19 +104,374 @@
 (Head Nodding, Head Bagging, Head Shaking, Head Tilting)</t>
   </si>
   <si>
-    <t>Atypicality and Typicality of the 
-Behavior</t>
-  </si>
-  <si>
-    <t>Atypicality and Typicality of the 
-Emotion</t>
+    <t>HB21</t>
+  </si>
+  <si>
+    <t>HB22</t>
+  </si>
+  <si>
+    <t>HB23</t>
+  </si>
+  <si>
+    <t>HB24</t>
+  </si>
+  <si>
+    <t>HB25</t>
+  </si>
+  <si>
+    <t>HB26</t>
+  </si>
+  <si>
+    <t>HB27</t>
+  </si>
+  <si>
+    <t>HB28</t>
+  </si>
+  <si>
+    <t>HB29</t>
+  </si>
+  <si>
+    <t>HB30</t>
+  </si>
+  <si>
+    <t>HB31</t>
+  </si>
+  <si>
+    <t>HB32</t>
+  </si>
+  <si>
+    <t>HB33</t>
+  </si>
+  <si>
+    <t>HB34</t>
+  </si>
+  <si>
+    <t>HB35</t>
+  </si>
+  <si>
+    <t>HB36</t>
+  </si>
+  <si>
+    <t>HB37</t>
+  </si>
+  <si>
+    <t>HB38</t>
+  </si>
+  <si>
+    <t>HB39</t>
+  </si>
+  <si>
+    <t>HB40</t>
+  </si>
+  <si>
+    <t>HB41</t>
+  </si>
+  <si>
+    <t>HB42</t>
+  </si>
+  <si>
+    <t>HB43</t>
+  </si>
+  <si>
+    <t>HB44</t>
+  </si>
+  <si>
+    <t>HB45</t>
+  </si>
+  <si>
+    <t>HB46</t>
+  </si>
+  <si>
+    <t>HB47</t>
+  </si>
+  <si>
+    <t>HB48</t>
+  </si>
+  <si>
+    <t>HB49</t>
+  </si>
+  <si>
+    <t>HB50</t>
+  </si>
+  <si>
+    <t>HB51</t>
+  </si>
+  <si>
+    <t>HB52</t>
+  </si>
+  <si>
+    <t>HB53</t>
+  </si>
+  <si>
+    <t>HB54</t>
+  </si>
+  <si>
+    <t>HB55</t>
+  </si>
+  <si>
+    <t>HB56</t>
+  </si>
+  <si>
+    <t>HB57</t>
+  </si>
+  <si>
+    <t>HB58</t>
+  </si>
+  <si>
+    <t>HB59</t>
+  </si>
+  <si>
+    <t>HB60</t>
+  </si>
+  <si>
+    <t>HB61</t>
+  </si>
+  <si>
+    <t>HB62</t>
+  </si>
+  <si>
+    <t>HB63</t>
+  </si>
+  <si>
+    <t>HB64</t>
+  </si>
+  <si>
+    <t>HB65</t>
+  </si>
+  <si>
+    <t>HB66</t>
+  </si>
+  <si>
+    <t>HB67</t>
+  </si>
+  <si>
+    <t>HB68</t>
+  </si>
+  <si>
+    <t>HB69</t>
+  </si>
+  <si>
+    <t>HB70</t>
+  </si>
+  <si>
+    <t>HB71</t>
+  </si>
+  <si>
+    <t>HB72</t>
+  </si>
+  <si>
+    <t>HB73</t>
+  </si>
+  <si>
+    <t>HB74</t>
+  </si>
+  <si>
+    <t>HB75</t>
+  </si>
+  <si>
+    <t>HB76</t>
+  </si>
+  <si>
+    <t>HB77</t>
+  </si>
+  <si>
+    <t>HB78</t>
+  </si>
+  <si>
+    <t>HB79</t>
+  </si>
+  <si>
+    <t>HB80</t>
+  </si>
+  <si>
+    <t>HB81</t>
+  </si>
+  <si>
+    <t>HB82</t>
+  </si>
+  <si>
+    <t>HB83</t>
+  </si>
+  <si>
+    <t>HB84</t>
+  </si>
+  <si>
+    <t>HB85</t>
+  </si>
+  <si>
+    <t>HB86</t>
+  </si>
+  <si>
+    <t>HB87</t>
+  </si>
+  <si>
+    <t>HB88</t>
+  </si>
+  <si>
+    <t>HB89</t>
+  </si>
+  <si>
+    <t>Head Nodding</t>
+  </si>
+  <si>
+    <t>Head Shaking</t>
+  </si>
+  <si>
+    <t>Head Spinning</t>
+  </si>
+  <si>
+    <t>Head Tilting</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=a5BuwkqtIa0</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=pzPhXbGEpSo</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=k9MJ4pDQQ7</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=Lex0gIMd73g</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=WLtorzPESbc</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=nwLp0k1xa0o</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=Pqd9Vu-juPI</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=WcsZ9eMQ5Zs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aNaC46cUOJo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pa-pdBF4FFA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch=Pa-pdBF4FFA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=c3wbP3CC2ic</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ljnwpW1Ul10</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kRt8muFfUQo</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=zuoD4tEtYyk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=alvgGARZjZY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=K0RjK2aMSwU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1UUMNUVOIlU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U69ImUi0CKE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3vEI7Fycilk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GAZoKgTL8tA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6sR-8llWl_s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0Vk9itex_ds</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=I6rRwwRxn40</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/0NuhI8w7hNE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pqd9Vu-juPI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cxqsde-6V-c</t>
+  </si>
+  <si>
+    <t>Confiedential</t>
+  </si>
+  <si>
+    <t>Anotators</t>
+  </si>
+  <si>
+    <t>Anotator 01</t>
+  </si>
+  <si>
+    <t>Anotator 01 Linked In Account</t>
+  </si>
+  <si>
+    <t>Anotator 02</t>
+  </si>
+  <si>
+    <t>Anotator 02 Linked In Account</t>
+  </si>
+  <si>
+    <t>Haritha Amunugamha (Pathologist)</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/haritha-amunugama-b54848184/?originalSubdomain=lk</t>
+  </si>
+  <si>
+    <t>Shalindi Pandithakoralge (Psychologist)</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shalindi-psychologist/?originalSubdomain=lk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TVMWW9SejgI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8SrUO-NdSZU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/wxDzCOyhFXM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B9hYEIjsHDA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5WTHMIJ_61I</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9zOrUA7Kn4o</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Lw-MsQ2k6ZQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=I38WtUMuQwM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w96PxUcoo58</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,16 +485,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -168,11 +552,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -181,20 +592,43 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -211,9 +645,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -251,7 +685,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -357,7 +791,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -499,7 +933,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -507,244 +941,2138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849800D6-47CB-B14F-90DC-A3761E3CB320}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.5" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38" customWidth="1"/>
-    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.5" customWidth="1"/>
+    <col min="4" max="4" width="40.83203125" customWidth="1"/>
+    <col min="5" max="5" width="74" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42" customWidth="1"/>
+    <col min="7" max="7" width="64.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="B25" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="B26" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>133</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{AEE9E477-4547-3F48-8209-FDA6FB4F37C2}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{2A0416DD-670E-CB46-9484-7207EA50F35F}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{4C840C65-C653-BB4A-AC8F-F73C782BE88A}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{775A4BD0-C38A-7C43-AE99-193B5B374349}"/>
+    <hyperlink ref="B23" r:id="rId5" xr:uid="{3E1D0D3C-A4FB-5B47-9E9C-9CE50B5F156F}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{4371737C-08C5-BC4B-8C7A-B161B23BF776}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{4A1E7F86-18F6-3D4C-8EFB-3B21CF3F7047}"/>
+    <hyperlink ref="B69" r:id="rId8" xr:uid="{F7FAA44C-94C6-C646-A9CA-D0FFD8C02C05}"/>
+    <hyperlink ref="B86" r:id="rId9" xr:uid="{735D2060-C253-174B-90D7-F9B167AA109D}"/>
+    <hyperlink ref="B10" r:id="rId10" xr:uid="{00AC2095-24EB-5946-9B89-76142C9CABFA}"/>
+    <hyperlink ref="B25" r:id="rId11" xr:uid="{C8E3E0E6-E228-F549-B4D4-B01E2E865D96}"/>
+    <hyperlink ref="B45" r:id="rId12" xr:uid="{8FDC8027-26A9-3840-A0F1-21519D21B24A}"/>
+    <hyperlink ref="B11" r:id="rId13" xr:uid="{7636815B-77C6-7642-8F19-C67758F1CD1A}"/>
+    <hyperlink ref="B31" r:id="rId14" xr:uid="{DAA4190F-14B3-E048-8452-2CFF3B0D3CAA}"/>
+    <hyperlink ref="B13" r:id="rId15" xr:uid="{3E920EEE-5EE8-9A44-B510-B27D25C792CE}"/>
+    <hyperlink ref="B12" r:id="rId16" xr:uid="{2E488D34-0873-0F4B-B7E5-3D976A50FE68}"/>
+    <hyperlink ref="B52" r:id="rId17" xr:uid="{C8FF6D7B-93C5-3244-8234-4963BA51362C}"/>
+    <hyperlink ref="B26" r:id="rId18" xr:uid="{2D5D5E6B-695F-A742-8AF7-659EE066C7FD}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{95F55092-7B8D-7048-AF93-E15551D6A1D0}"/>
+    <hyperlink ref="B16" r:id="rId20" xr:uid="{04793679-E728-8545-936A-54DF1955EC1A}"/>
+    <hyperlink ref="E3" r:id="rId21" xr:uid="{89B74BA5-F2CF-E040-B428-27C668B5CC37}"/>
+    <hyperlink ref="E4:E91" r:id="rId22" display="https://www.linkedin.com/in/haritha-amunugama-b54848184/?originalSubdomain=lk" xr:uid="{19459AA6-1A17-504E-83CE-2EA0BE562463}"/>
+    <hyperlink ref="G3" r:id="rId23" xr:uid="{28DE2B15-9322-E648-BE7A-1DC6B95B3194}"/>
+    <hyperlink ref="G4:G91" r:id="rId24" display="https://www.linkedin.com/in/shalindi-psychologist/?originalSubdomain=lk" xr:uid="{E652B45A-8C9D-184A-93BD-2DEC3B997394}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>